--- a/notebooks/assets/test_random_selection/keraspm25_st0_01_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/keraspm25_st0_01_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="C2" t="n">
-        <v>1.088</v>
+        <v>1.148</v>
       </c>
       <c r="D2" t="n">
-        <v>1.001</v>
+        <v>0.89</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16</v>
+        <v>0.971</v>
       </c>
       <c r="F2" t="n">
-        <v>1.052</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.028</v>
+        <v>2.117</v>
       </c>
       <c r="C3" t="n">
-        <v>1.47</v>
+        <v>1.509</v>
       </c>
       <c r="D3" t="n">
-        <v>1.326</v>
+        <v>1.164</v>
       </c>
       <c r="E3" t="n">
-        <v>1.519</v>
+        <v>1.298</v>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.118</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.304</v>
+        <v>4.583</v>
       </c>
       <c r="C4" t="n">
-        <v>2.196</v>
+        <v>2.319</v>
       </c>
       <c r="D4" t="n">
-        <v>1.768</v>
+        <v>1.366</v>
       </c>
       <c r="E4" t="n">
-        <v>2.331</v>
+        <v>1.688</v>
       </c>
       <c r="F4" t="n">
-        <v>1.876</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.756</v>
+        <v>0.743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.508</v>
+        <v>0.623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.839</v>
+        <v>0.883</v>
       </c>
       <c r="F5" t="n">
-        <v>0.774</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.965</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>7.567</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.309</v>
+        <v>10.314</v>
       </c>
       <c r="C7" t="n">
-        <v>8.474</v>
+        <v>8.473000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>2.49</v>
       </c>
       <c r="E7" t="n">
-        <v>4.099</v>
+        <v>4.096</v>
       </c>
       <c r="F7" t="n">
-        <v>4.58</v>
+        <v>4.579</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.404</v>
+        <v>106.423</v>
       </c>
       <c r="C8" t="n">
-        <v>71.822</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>6.214</v>
       </c>
       <c r="E8" t="n">
-        <v>16.81</v>
+        <v>16.811</v>
       </c>
       <c r="F8" t="n">
-        <v>20.988</v>
+        <v>20.987</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.862</v>
+        <v>-1.84</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.028</v>
+        <v>-6.979</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.723</v>
+        <v>-0.735</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.165</v>
+        <v>-0.157</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.579</v>
+        <v>-1.585</v>
       </c>
     </row>
   </sheetData>
